--- a/SLR_Full_Sheets.xlsx
+++ b/SLR_Full_Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uquadmin-my.sharepoint.com/personal/s44680217_uqu_edu_sa/Documents/GP_Master_Degree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{061F3413-F0DC-4024-9E8A-55FCCDA67AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED2350D-55F9-4377-97D9-1AF27CC2536B}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{061F3413-F0DC-4024-9E8A-55FCCDA67AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574FECCD-9CAC-47A8-9801-D4AF6E6D53BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="6" xr2:uid="{D2616AAA-B04B-467A-89C4-3B4A40038799}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="5" activeTab="8" xr2:uid="{D2616AAA-B04B-467A-89C4-3B4A40038799}"/>
   </bookViews>
   <sheets>
     <sheet name="PICOC &amp; RQs" sheetId="7" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="691">
   <si>
     <t>PICOC Element</t>
   </si>
@@ -3036,18 +3036,94 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quality Assessment (QA):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Studies that met a minimum methodological quality threshold, defined as a total Quality Assessment (QA) score greater than 4 according to the applied QA rubric.</t>
+    </r>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quality Assessment (QA): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studies that did not meet a minimum methodological quality threshold,
+defined as a total QA score greater than 4 according to the applied quality
+assessment rubric.</t>
+    </r>
+  </si>
+  <si>
+    <t>Excludes studies with insufficient methodological quality (QA score ≤ 4) to reduce the risk of bias, unclear experimental reporting, or unsupported claims affecting the review findings, and to maintain a consistent baseline of evidence quality across the included study set.</t>
+  </si>
+  <si>
+    <t>Ensures that only studies meeting a minimum level of methodological rigor are included in the final synthesis, thereby improving the reliability and interpretability of cross-study comparisons and preventing conclusions from being influenced by poorly specified or weakly supported evidence.</t>
+  </si>
+  <si>
+    <t>Surrogate gradient
+ANN-to-SNN Conversion Method</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3356,15 +3432,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3374,130 +3450,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3521,16 +3597,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3539,59 +3615,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3937,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D07519-5A23-425B-AABD-F3E4E3E634F0}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4049,11 +4128,11 @@
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,7 +4600,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4627,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7796A50-B33E-462C-99FB-12BB8B49D914}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C43" zoomScale="73" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4657,7 +4736,7 @@
       <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>683</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -5771,14 +5850,14 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="D44" s="28" t="s">
         <v>206</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>668</v>
       </c>
@@ -5788,7 +5867,7 @@
       </c>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="145" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>29</v>
       </c>
@@ -5815,7 +5894,7 @@
       </c>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>32</v>
       </c>
@@ -5829,7 +5908,7 @@
       </c>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>38</v>
       </c>
@@ -5842,7 +5921,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>41</v>
       </c>
@@ -5863,7 +5942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
         <v>667</v>
       </c>
@@ -5984,7 +6063,7 @@
       <c r="A88" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5992,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EA3564-9BE6-4D0C-AC0B-919D537AB6BC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6083,18 +6162,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53C018-5407-43AD-8C4F-0B44433D9511}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6182,8 +6272,19 @@
         <v>105</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="70.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>687</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6334,7 +6435,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6343,10 +6444,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB73705-E6F1-4635-9443-B43BC4A68070}">
   <dimension ref="A1:AS40"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7661,7 +7762,7 @@
         <v>372</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>374</v>
+        <v>690</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>498</v>
@@ -9458,7 +9559,7 @@
     </row>
   </sheetData>
   <autoFilter ref="W1:W40" xr:uid="{9AB73705-E6F1-4635-9443-B43BC4A68070}"/>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I20" r:id="rId1" xr:uid="{E44C473D-ED45-4B6D-A788-DD216B5E32A0}"/>
   </hyperlinks>

--- a/SLR_Full_Sheets.xlsx
+++ b/SLR_Full_Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uquadmin-my.sharepoint.com/personal/s44680217_uqu_edu_sa/Documents/GP_Master_Degree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{061F3413-F0DC-4024-9E8A-55FCCDA67AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574FECCD-9CAC-47A8-9801-D4AF6E6D53BE}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{061F3413-F0DC-4024-9E8A-55FCCDA67AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED67CF33-CA77-4E6B-BD81-DC349037246A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="5" activeTab="8" xr2:uid="{D2616AAA-B04B-467A-89C4-3B4A40038799}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="data extraction &amp; scores" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'data extraction &amp; scores'!$W$1:$W$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'data extraction &amp; scores'!$M$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -6442,12 +6442,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB73705-E6F1-4635-9443-B43BC4A68070}">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AS40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="69" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6603,7 +6606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="49" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="49" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>499</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="49" customFormat="1" ht="238" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="49" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>500</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="49" customFormat="1" ht="196" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="49" customFormat="1" ht="196" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>502</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="49" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="49" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>503</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="68" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="68" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
         <v>504</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="49" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="49" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>508</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="49" customFormat="1" ht="112" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" s="49" customFormat="1" ht="112" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>511</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="68" customFormat="1" ht="140" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" s="68" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>514</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="49" customFormat="1" ht="170.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" s="49" customFormat="1" ht="170.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>517</v>
       </c>
@@ -8729,7 +8732,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -8775,7 +8780,7 @@
       <c r="AR23" s="59"/>
       <c r="AS23" s="59"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
@@ -8821,7 +8826,7 @@
       <c r="AR24" s="59"/>
       <c r="AS24" s="59"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
@@ -8867,7 +8872,7 @@
       <c r="AR25" s="59"/>
       <c r="AS25" s="59"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -8913,7 +8918,7 @@
       <c r="AR26" s="59"/>
       <c r="AS26" s="59"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -8959,7 +8964,7 @@
       <c r="AR27" s="59"/>
       <c r="AS27" s="59"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
@@ -9005,7 +9010,7 @@
       <c r="AR28" s="59"/>
       <c r="AS28" s="59"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
@@ -9051,7 +9056,7 @@
       <c r="AR29" s="59"/>
       <c r="AS29" s="59"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -9097,7 +9102,7 @@
       <c r="AR30" s="59"/>
       <c r="AS30" s="59"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
@@ -9143,7 +9148,7 @@
       <c r="AR31" s="59"/>
       <c r="AS31" s="59"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="56"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
@@ -9189,7 +9194,7 @@
       <c r="AR32" s="59"/>
       <c r="AS32" s="59"/>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="56"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
@@ -9235,7 +9240,7 @@
       <c r="AR33" s="59"/>
       <c r="AS33" s="59"/>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -9281,7 +9286,7 @@
       <c r="AR34" s="59"/>
       <c r="AS34" s="59"/>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
@@ -9327,7 +9332,7 @@
       <c r="AR35" s="59"/>
       <c r="AS35" s="59"/>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
@@ -9373,7 +9378,7 @@
       <c r="AR36" s="59"/>
       <c r="AS36" s="59"/>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
@@ -9419,7 +9424,7 @@
       <c r="AR37" s="59"/>
       <c r="AS37" s="59"/>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -9465,7 +9470,7 @@
       <c r="AR38" s="59"/>
       <c r="AS38" s="59"/>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
@@ -9511,7 +9516,7 @@
       <c r="AR39" s="59"/>
       <c r="AS39" s="59"/>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -9558,13 +9563,19 @@
       <c r="AS40" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="W1:W40" xr:uid="{9AB73705-E6F1-4635-9443-B43BC4A68070}"/>
+  <autoFilter ref="M1:M40" xr:uid="{9AB73705-E6F1-4635-9443-B43BC4A68070}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="*Hybrid*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I20" r:id="rId1" xr:uid="{E44C473D-ED45-4B6D-A788-DD216B5E32A0}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="13" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
